--- a/src/static/template_ippan_city.xlsx
+++ b/src/static/template_ippan_city.xlsx
@@ -5,52 +5,687 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\400_業務\2022_業務\水害統計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\400_業務\2022\水害統計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="749"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IPPAN" sheetId="1" r:id="rId1"/>
+    <sheet name="BUILDING" sheetId="2" r:id="rId2"/>
+    <sheet name="KEN" sheetId="3" r:id="rId3"/>
+    <sheet name="CITY" sheetId="4" r:id="rId4"/>
+    <sheet name="KASEN_KAIGAN" sheetId="5" r:id="rId5"/>
+    <sheet name="SUIKEI" sheetId="6" r:id="rId6"/>
+    <sheet name="SUIKEI_TYPE" sheetId="7" r:id="rId7"/>
+    <sheet name="KASEN" sheetId="8" r:id="rId8"/>
+    <sheet name="KASEN_TYPE" sheetId="9" r:id="rId9"/>
+    <sheet name="CAUSE" sheetId="10" r:id="rId10"/>
+    <sheet name="UNDERGROUND" sheetId="11" r:id="rId11"/>
+    <sheet name="USAGE" sheetId="12" r:id="rId12"/>
+    <sheet name="FLOOD_SEDIMENT" sheetId="13" r:id="rId13"/>
+    <sheet name="GRADIENT" sheetId="14" r:id="rId14"/>
+    <sheet name="INDUSTRY" sheetId="15" r:id="rId15"/>
+    <sheet name="SUIGAI" sheetId="16" r:id="rId16"/>
+    <sheet name="WEATHER" sheetId="17" r:id="rId17"/>
+    <sheet name="AREA" sheetId="18" r:id="rId18"/>
+    <sheet name="CITY_VLOOK" sheetId="19" r:id="rId19"/>
+    <sheet name="KASEN_VLOOK" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+  <si>
+    <t>NO.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県
+[全角]</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村名
+[全角]</t>
+    <rPh sb="0" eb="4">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害発生月日</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツキヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害終了月日</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツキヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害原因</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害区域番号</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水系・沿岸名
+[全角]</t>
+    <rPh sb="0" eb="2">
+      <t>スイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンガン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水系種別
+[全角]</t>
+    <rPh sb="0" eb="2">
+      <t>スイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河川・海岸名
+[全角]</t>
+    <rPh sb="0" eb="2">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河川種別
+[全角]</t>
+    <rPh sb="0" eb="2">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地盤勾配区分</t>
+    <rPh sb="0" eb="2">
+      <t>ジバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町丁名・大字名
+[全角]</t>
+    <rPh sb="0" eb="3">
+      <t>チョウチョウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オオアザ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称
+[全角]</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上地下区分</t>
+    <rPh sb="0" eb="2">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浸水土砂区分</t>
+    <rPh sb="0" eb="2">
+      <t>シンスイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被害建物棟数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被害建物の延床面積(m2)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被災世帯数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被災事業所数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒサイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジギョウショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農家・漁家戸数</t>
+    <rPh sb="0" eb="2">
+      <t>ノウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業所従業者数</t>
+    <rPh sb="0" eb="3">
+      <t>ジギョウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業所の産業分類</t>
+    <rPh sb="0" eb="3">
+      <t>ジギョウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下空間の利用形態</t>
+    <rPh sb="0" eb="2">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考1</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考2</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害区域面積(宅地)(m2)</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害区域面積(農地)(m2)</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水害区域面積(地下)(m2)</t>
+    <rPh sb="0" eb="2">
+      <t>スイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工種</t>
+    <rPh sb="0" eb="2">
+      <t>コウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農作物被害額(千円)</t>
+    <rPh sb="0" eb="3">
+      <t>ノウサクブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常気象コード</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査票シート名</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル最終更新日時</t>
+    <rPh sb="4" eb="6">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床下</t>
+    <rPh sb="0" eb="2">
+      <t>ユカシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-49cm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50-99cm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1m以上</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半壊</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全壊</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-49cm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-49cm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須入力項目</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件付入力項目</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般資産調査票一覧</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>チョウサヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -58,22 +693,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFCC99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,13 +1157,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dimension ref="A1:BC7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" hidden="1" customWidth="1"/>
+    <col min="4" max="52" width="20.625" customWidth="1"/>
+    <col min="53" max="53" width="20.625" hidden="1" customWidth="1"/>
+    <col min="54" max="55" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:55" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:55" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:AB6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="AK6:AO6"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>